--- a/tiling_errors.xlsx
+++ b/tiling_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,271 +436,72 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>wsi_id</t>
+          <t>wsi_path</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>corrupted</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>scanner</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>mpp</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>mpp_x</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mpp_y</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>objective_power</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>path_WIN</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>path_WSL</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Molecular risk group</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>p53_inconsistency</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>prepr_error</t>
+          <t>preprocessing_error</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22 B 13385 C9</t>
-        </is>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>panoramic</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.242534722222222</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.242534722222222</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.242647058823529</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>D:\original_scans\panoramic\22 B 13385 C9.mrxs</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>/mnt/d/original_scans/panoramic/22 B 13385 C9.mrxs</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>NMSP</t>
-        </is>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>cannot unpack non-iterable Polygon object</t>
+          <t>D:\original_scans\panoramic\23 B 28240 A1.mrxs</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Raw tissue mask consists of 0 polygons</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22 B 14380 A10</t>
-        </is>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>panoramic</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.242534722222222</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.242534722222222</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.242647058823529</v>
-      </c>
-      <c r="G3" t="n">
-        <v>20</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>D:\original_scans\panoramic\22 B 14380 A10.mrxs</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>/mnt/d/original_scans/panoramic/22 B 14380 A10.mrxs</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NMSP</t>
-        </is>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>cannot unpack non-iterable Polygon object</t>
+          <t>D:\original_scans\panoramic\24 B 09505 A1.mrxs</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Raw tissue mask consists of 0 polygons</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>22 B 14545 C7</t>
-        </is>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>panoramic</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.121267361111111</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.121267361111111</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.121323529411765</v>
-      </c>
-      <c r="G4" t="n">
-        <v>40</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>D:\original_scans\panoramic\22 B 14545 C7.mrxs</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>/mnt/d/original_scans/panoramic/22 B 14545 C7.mrxs</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>p53 MT</t>
-        </is>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">argument 1: KeyboardInterrupt: </t>
+          <t>D:\original_scans\NikonS60\22 B 41891 A8.ndpi</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Can't validate JPEG for directory 0: Expected marker at 4294970512, found none</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>22 B 15364 A6</t>
-        </is>
-      </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>panoramic</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.242534722222222</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.242534722222222</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.242647058823529</v>
-      </c>
-      <c r="G5" t="n">
-        <v>20</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>D:\original_scans\panoramic\22 B 15364 A6.mrxs</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>/mnt/d/original_scans/panoramic/22 B 15364 A6.mrxs</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>MMRd</t>
-        </is>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>cannot unpack non-iterable Polygon object</t>
+          <t>D:\original_scans\NikonS60\23 B 27658 C2.ndpi</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Can't validate JPEG for directory 0: Expected marker at 4294970512, found none</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>D:\original_scans\NikonS60\23 B 38716 C22.ndpi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Can't validate JPEG for directory 0: Expected marker at 4294970712, found none</t>
         </is>
       </c>
     </row>
